--- a/posts/Rahul_Final_projectData/USA_inflation_data.xlsx
+++ b/posts/Rahul_Final_projectData/USA_inflation_data.xlsx
@@ -2598,18 +2598,42 @@
       <c r="E25" s="11">
         <v>280.33</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="F25" s="11">
+        <v>268.639</v>
+      </c>
+      <c r="G25" s="11">
+        <v>272.673</v>
+      </c>
+      <c r="H25" s="11">
+        <v>277.072</v>
+      </c>
+      <c r="I25" s="11">
+        <v>276.525</v>
+      </c>
+      <c r="J25" s="11">
+        <v>275.875</v>
+      </c>
+      <c r="K25" s="11">
+        <v>276.549</v>
+      </c>
+      <c r="L25" s="11">
+        <v>276.908</v>
+      </c>
+      <c r="M25" s="11">
+        <v>276.436</v>
+      </c>
+      <c r="N25" s="11">
+        <v>275.182</v>
+      </c>
+      <c r="O25" s="11">
+        <v>272.401</v>
+      </c>
+      <c r="P25" s="11">
+        <v>268.557</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>276.246</v>
+      </c>
     </row>
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" t="s" s="6">
